--- a/Documents/报障.xlsx
+++ b/Documents/报障.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16968" windowHeight="9780" activeTab="2"/>
+    <workbookView windowWidth="21720" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="T_Facility" sheetId="1" r:id="rId1"/>
-    <sheet name="T_Place" sheetId="2" r:id="rId2"/>
-    <sheet name="T_Reason" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>f_id</t>
   </si>
@@ -1244,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1378,134 +1376,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>